--- a/Requisitos projecto 2 - Vasco - César.xlsx
+++ b/Requisitos projecto 2 - Vasco - César.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Desktop\Proj2_Cesar_Vasco\cesar-vasco-proj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61078D2-C126-4FC6-83D8-71EEECBAD670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A670C0-106F-428F-BB2C-43810F2D81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>Grupo</t>
   </si>
@@ -170,7 +170,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +205,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,6 +332,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,8 +555,8 @@
   </sheetPr>
   <dimension ref="A1:E996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -574,7 +588,7 @@
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2"/>
@@ -587,7 +601,7 @@
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2"/>
@@ -600,7 +614,7 @@
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2"/>
@@ -613,7 +627,7 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="2"/>
@@ -626,7 +640,7 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2"/>
@@ -639,7 +653,7 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="2"/>
@@ -652,7 +666,7 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="2"/>
@@ -665,7 +679,7 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2"/>
@@ -678,7 +692,7 @@
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2"/>
@@ -691,7 +705,7 @@
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2"/>
@@ -704,7 +718,7 @@
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2"/>
@@ -717,7 +731,7 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="2"/>
@@ -730,7 +744,7 @@
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="2"/>
@@ -743,7 +757,7 @@
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="2"/>
@@ -756,7 +770,7 @@
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="2"/>
@@ -769,7 +783,7 @@
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="2"/>
@@ -782,7 +796,7 @@
       <c r="B18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="2"/>
@@ -795,6 +809,9 @@
       <c r="B19" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -803,6 +820,9 @@
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
@@ -811,7 +831,7 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -822,7 +842,7 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -833,7 +853,7 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -844,7 +864,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -855,6 +875,9 @@
       <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="C25" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
@@ -863,7 +886,7 @@
       <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -874,6 +897,9 @@
       <c r="B27" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="C27" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
@@ -882,7 +908,7 @@
       <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -893,7 +919,7 @@
       <c r="B29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -904,7 +930,7 @@
       <c r="B30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="21" t="s">
         <v>37</v>
       </c>
     </row>
